--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.964</v>
+        <v>6.495</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.452</v>
+        <v>-21.399</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.566</v>
+        <v>6.234</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.182</v>
+        <v>-12.174</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.436</v>
+        <v>-7.326000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.772</v>
+        <v>-11.319</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,10 +621,10 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.084</v>
+        <v>-12.994</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.6</v>
+        <v>-8.087999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.578</v>
+        <v>-20.733</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.74</v>
+        <v>-7.838000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.168</v>
+        <v>-21.66</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.234</v>
+        <v>-12.18</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.318000000000001</v>
+        <v>-7.941</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-22.082</v>
+        <v>-21.709</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.078</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
